--- a/data/trans_dic/P79$recibos_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P79$recibos_2023-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.07968265599475942</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.07425160654035161</v>
+        <v>0.07425160654035159</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05004190475783047</v>
+        <v>0.05090947136453149</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06330279772036954</v>
+        <v>0.0634942399770896</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06123912135218362</v>
+        <v>0.06243054575776787</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09078653697210688</v>
+        <v>0.09189478062854115</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09859743987225461</v>
+        <v>0.09898156852787138</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08886698588910322</v>
+        <v>0.08864908931997284</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.0927522926330285</v>
+        <v>0.09275229263302849</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.09752589762628704</v>
+        <v>0.09752589762628705</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09515239058988559</v>
+        <v>0.0951523905898856</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07602218477699642</v>
+        <v>0.07544891200792</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08112010808325483</v>
+        <v>0.08222273613950859</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08307688817960211</v>
+        <v>0.08260417460421721</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1139280318826911</v>
+        <v>0.113711349029843</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1162445320919105</v>
+        <v>0.1153829488887441</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.109667568039321</v>
+        <v>0.109007202766562</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04615169954327974</v>
+        <v>0.04777039242412141</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05185375750195356</v>
+        <v>0.05339067216573602</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05399924886245141</v>
+        <v>0.05289020770655739</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08519334785027233</v>
+        <v>0.08554999356809857</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08733094857813994</v>
+        <v>0.09106774183646249</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07982515442577313</v>
+        <v>0.08008340837067535</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08775276016067686</v>
+        <v>0.08940055386328423</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1141025313972885</v>
+        <v>0.1141243170134027</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1074783054480907</v>
+        <v>0.1069806072275923</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1299353346291448</v>
+        <v>0.1330013214806791</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1523878132326388</v>
+        <v>0.1539264318908081</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1381348751905099</v>
+        <v>0.1366185166872726</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.08585336246500291</v>
+        <v>0.0858533624650029</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.09829051674536146</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.09222982829047145</v>
+        <v>0.09222982829047144</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07576401539497515</v>
+        <v>0.07548441360341041</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08907230973986807</v>
+        <v>0.08975434944558659</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08588693945878557</v>
+        <v>0.08562504356242095</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0960666752882726</v>
+        <v>0.09628310566691653</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1071413780779731</v>
+        <v>0.1088401850974085</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09956896238115899</v>
+        <v>0.09949136829577607</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>33555</v>
+        <v>34137</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45120</v>
+        <v>45256</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>84713</v>
+        <v>86361</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>60877</v>
+        <v>61620</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>70277</v>
+        <v>70550</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>122930</v>
+        <v>122629</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>77586</v>
+        <v>77001</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>83717</v>
+        <v>84855</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>170522</v>
+        <v>169552</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>116272</v>
+        <v>116051</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>119965</v>
+        <v>119076</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>225102</v>
+        <v>223746</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>35482</v>
+        <v>36726</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>40244</v>
+        <v>41437</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>83424</v>
+        <v>81711</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>65497</v>
+        <v>65771</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>67778</v>
+        <v>70678</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>123323</v>
+        <v>123722</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>84321</v>
+        <v>85904</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>123023</v>
+        <v>123046</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>219156</v>
+        <v>218141</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>124854</v>
+        <v>127800</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>164301</v>
+        <v>165960</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>281667</v>
+        <v>278575</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>259175</v>
+        <v>258219</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>320576</v>
+        <v>323031</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>602915</v>
+        <v>601077</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>328627</v>
+        <v>329367</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>385607</v>
+        <v>391722</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>698961</v>
+        <v>698417</v>
       </c>
     </row>
     <row r="24">
